--- a/bd/M_Kolomenskaya1_1_10_31_E.xlsx
+++ b/bd/M_Kolomenskaya1_1_10_31_E.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,54 +400,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>574.5</v>
+        <v>576.046875</v>
       </c>
       <c r="B1" t="n">
-        <v>65</v>
+        <v>66.1875</v>
       </c>
       <c r="C1" t="n">
-        <v>36</v>
+        <v>35.78125</v>
       </c>
       <c r="D1" t="n">
-        <v>58</v>
+        <v>56.28125</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9749076034750096</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>351.5</v>
+        <v>342.609375</v>
       </c>
       <c r="B2" t="n">
-        <v>523.5</v>
+        <v>524.203125</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>73.875</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>141.9375</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9318885448916409</v>
+        <v>0.9794612675433163</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>56</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -473,163 +473,189 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9870349853787947</v>
+        <v>0.05733252866626434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>671</v>
+        <v>672.875</v>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>56.3125</v>
       </c>
       <c r="C4" t="n">
-        <v>43.5</v>
+        <v>43.640625</v>
       </c>
       <c r="D4" t="n">
-        <v>61.5</v>
+        <v>62.484375</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9615102639296188</v>
+        <v>0.9599127318564519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>445.5</v>
+        <v>437.296875</v>
       </c>
       <c r="B5" t="n">
-        <v>387.5</v>
+        <v>389.078125</v>
       </c>
       <c r="C5" t="n">
-        <v>117.5</v>
+        <v>116.015625</v>
       </c>
       <c r="D5" t="n">
-        <v>84.5</v>
+        <v>94.171875</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9799581214478014</v>
+        <v>0.980983035001266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>546.5</v>
+        <v>545.015625</v>
       </c>
       <c r="B6" t="n">
-        <v>392.5</v>
+        <v>392.578125</v>
       </c>
       <c r="C6" t="n">
-        <v>101.5</v>
+        <v>102.890625</v>
       </c>
       <c r="D6" t="n">
-        <v>53.5</v>
+        <v>56.390625</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9720355910659161</v>
+        <v>0.9654617614308143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>614.5</v>
+        <v>614.953125</v>
       </c>
       <c r="B7" t="n">
-        <v>396</v>
+        <v>397.15625</v>
       </c>
       <c r="C7" t="n">
-        <v>111.5</v>
+        <v>108.859375</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59.40625</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.94180815556523</v>
+        <v>0.9709636261851468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>693</v>
+        <v>694.6875</v>
       </c>
       <c r="B8" t="n">
-        <v>402.5</v>
+        <v>407.359375</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>109.625</v>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8314156431803491</v>
+        <v>0.8947387700902056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>400.5</v>
+        <v>399.75</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>54.5</v>
+        <v>58.25</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.7881752445767758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>367.5625</v>
+      </c>
+      <c r="B10" t="n">
+        <v>610.375</v>
+      </c>
+      <c r="C10" t="n">
+        <v>76.4375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9351052813255092</v>
       </c>
     </row>
   </sheetData>
